--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -2295,12 +2295,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2406,7 +2401,12 @@
           <t>Sue</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -2404,7 +2404,7 @@
       <c r="G37" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Blck Camry</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -2421,7 +2421,7 @@
       <c r="K37" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe, Equip</t>
+Optima, Equip</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -1932,15 +1932,10 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -1988,13 +1983,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Altima</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2053,12 +2048,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>*Help drive if needed</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2116,10 +2112,14 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>*Help drive if needed</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -1281,7 +1281,13 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry,
+Trainer</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1299,7 +1305,8 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1478,12 +1485,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>*1st Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1555,10 +1562,14 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -1575,13 +1586,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Store,
-Optima</t>
+          <t>2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1627,7 +1637,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1647,10 +1657,15 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1694,10 +1709,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -1714,7 +1733,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1753,7 +1772,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1773,10 +1792,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1812,16 +1835,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -1834,7 +1851,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1870,9 +1887,21 @@
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>*1st Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1897,7 +1926,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1921,9 +1950,23 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Rx</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -1944,7 +1987,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1969,11 +2012,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
@@ -2000,15 +2039,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2034,11 +2068,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2065,12 +2095,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2100,7 +2130,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2121,9 +2151,21 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2151,7 +2193,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #588, ALGONQUIN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2168,9 +2210,22 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2194,7 +2249,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>100 SOUTH RANDALL RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2212,11 +2267,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2253,7 +2304,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+          <t>BUTERA MARKET #588, ALGONQUIN</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2271,11 +2322,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2306,7 +2353,11 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>100 SOUTH RANDALL RD</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
@@ -2322,7 +2373,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2348,21 +2403,13 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/agPr8wkY55me3Sq7A</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2381,7 +2428,11 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2425,22 +2476,9 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2503,15 +2541,19 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2570,15 +2612,20 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -2617,12 +2664,12 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2664,19 +2711,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -2707,19 +2750,15 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -2750,12 +2789,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2791,9 +2830,21 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2822,9 +2873,21 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -1079,7 +1079,11 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Carlie/Katelyn/Sophia 5:30 am meet at Good Hope PnR</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1146,22 +1150,9 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1225,15 +1216,20 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1295,20 +1291,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1364,15 +1355,20 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1432,20 +1428,15 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1504,19 +1495,18 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe,
-Supv Rx</t>
+Red Van</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1581,17 +1571,19 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2nd Day, work w/ Leyna</t>
+          <t>Driver,
+Santa Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1652,18 +1644,18 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
           <t>@ Store,
-Optima</t>
+2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1728,15 +1720,20 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1787,19 +1784,15 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1846,15 +1839,19 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1921,12 +1918,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1982,12 +1979,12 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2034,12 +2031,12 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2090,19 +2087,15 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>2nd Day, work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2153,17 +2146,18 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2212,18 +2206,17 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2266,9 +2259,22 @@
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2373,11 +2379,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2430,7 +2432,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2497,7 +2499,11 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -704,7 +704,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Festival Foods is going through the process of selling to new </t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -751,7 +755,11 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ownership.  Starting Thursday (9/18) there may be extra store</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -798,7 +806,11 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>personnel at the Festivals for the remainder of this round of</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -845,7 +857,11 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>inventories.  All processes are expected to remain the same,</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -892,7 +908,11 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>you may encounter a few extra recounts however due to the</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -939,7 +959,11 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sale.  Thank you for all of your hard work and keeping our</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -986,7 +1010,11 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>customers happy!</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -706,7 +706,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festival Foods is going through the process of selling to new </t>
+          <t>Festival Foods is going through the process of selling to new ownership.  Starting Thursday (9/18) there may be extra store personnel at the Festivals for the remainder of this round of inventories.  All processes are expected to remain the same, you may encounter a few extra recounts however due to the sale.  Thank you for all your hard work and for keeping our customers happy!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -755,11 +755,7 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ownership.  Starting Thursday (9/18) there may be extra store</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -806,11 +802,7 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>personnel at the Festivals for the remainder of this round of</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -857,11 +849,7 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>inventories.  All processes are expected to remain the same,</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -908,11 +896,7 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>you may encounter a few extra recounts however due to the</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -959,11 +943,7 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>sale.  Thank you for all of your hard work and keeping our</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -1010,11 +990,7 @@
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>customers happy!</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Milwaukee Schedule.xlsx
@@ -1155,8 +1155,16 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/Gc4TFnD1VtCbLzRg6</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>(this link is only for Good hope meet)</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1218,22 +1226,9 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1295,15 +1290,20 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1359,20 +1359,15 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1432,15 +1427,20 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1499,20 +1499,15 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1575,19 +1570,18 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe,
-Supv Rx</t>
+Red Van</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1648,18 +1642,19 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katelyn</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Day, work w/ Leyna</t>
+          <t>Driver,
+Santa Fe,
+Supv Rx</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1724,18 +1719,18 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Katelyn</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
           <t>@ Store,
-Optima</t>
+2nd Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1788,15 +1783,20 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1843,19 +1843,15 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1922,15 +1918,19 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2035,12 +2035,12 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2091,12 +2091,12 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2150,20 +2150,15 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd Day, work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2210,17 +2205,18 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2265,18 +2261,17 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
@@ -2331,9 +2326,22 @@
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2434,11 +2442,7 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2505,7 +2509,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2582,7 +2586,11 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
